--- a/excel/dosyalar/reports_mekmer_strips.xlsx
+++ b/excel/dosyalar/reports_mekmer_strips.xlsx
@@ -472,17 +472,17 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20-07-2024</t>
+          <t>20-08-2024</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Alimoglu</t>
+          <t>Cyl Mermer</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>ALIMOGLU</t>
+          <t>FABER</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -491,22 +491,22 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>7500</v>
-      </c>
       <c r="H2" s="4" t="n">
-        <v>30.5</v>
+        <v>51</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
